--- a/aichan/505972234377113322_2021-03-25_19-50-41.xlsx
+++ b/aichan/505972234377113322_2021-03-25_19-50-41.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:48:30</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95034722222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -605,10 +619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:48:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44327.82516203704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:28:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44325.39450231481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:37:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44315.69304398148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-26 00:07:53</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44312.00547453704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,10 +913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:37:13</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44310.48417824074</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -975,10 +979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:55:01</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44308.45487268519</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1051,10 +1053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:09:18</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44307.46479166667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:05:12</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44306.50361111111</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1203,10 +1201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-19 22:51:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44305.95231481481</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1280,10 +1276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:27:03</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44305.01878472222</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1364,10 +1358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:43:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44304.94689814815</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1436,10 +1428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:25:35</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44302.30943287037</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1515,10 +1505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:15:40</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44302.09421296296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1617,10 +1605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-14 12:05:36</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44300.50388888889</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1712,10 +1698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:56:39</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44298.03934027778</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1794,10 +1778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:46:36</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44295.36569444444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1872,10 +1854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:40:24</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44294.31972222222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1940,10 +1920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:55:18</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44293.83006944445</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2018,10 +1996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:29:39</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44293.02059027777</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2085,10 +2061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-06 20:28:01</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44292.85278935185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2153,10 +2127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:18:58</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44292.5131712963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2233,10 +2205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-05 12:01:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44291.50123842592</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2301,10 +2271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:16:12</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44288.55291666667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2385,10 +2353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:41:38</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44284.77891203704</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2452,10 +2418,8 @@
           <t>4313436165</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:06:23</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44283.9627662037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2519,10 +2483,8 @@
           <t>4313433555</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:05:49</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44283.96237268519</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2586,10 +2548,8 @@
           <t>4317416691</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:16:09</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44283.59454861111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2657,10 +2617,8 @@
           <t>4317416691</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44283.5192824074</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2724,10 +2682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-28 01:47:37</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44283.0747337963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2795,10 +2751,8 @@
           <t>4325161965</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-27 21:00:03</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44282.87503472222</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2874,10 +2828,8 @@
           <t>4323312724</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:13:23</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44282.59262731481</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2949,10 +2901,8 @@
           <t>4323301393</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-27 14:10:13</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44282.59042824074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3024,10 +2974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-27 06:29:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44282.270625</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3103,10 +3051,8 @@
           <t>4313602152</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:42:18</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44281.98770833333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3178,10 +3124,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:08:32</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44281.96425925926</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3245,10 +3189,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:06:39</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44281.96295138889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3312,10 +3254,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:06:04</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44281.96254629629</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3380,10 +3320,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:48:12</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44281.95013888889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3452,10 +3390,8 @@
           <t>4313686404</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-26 21:22:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44281.89078703704</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3531,10 +3467,8 @@
           <t>4318674384</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:48:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44281.65875</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3598,10 +3532,8 @@
           <t>4318673534</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:47:49</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44281.65820601852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3665,10 +3597,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-26 15:44:19</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44281.65577546296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3732,10 +3662,8 @@
           <t>4314201257</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:55:51</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44281.62211805556</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3811,10 +3739,8 @@
           <t>4314201257</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:54:43</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44281.62133101852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3890,10 +3816,8 @@
           <t>4314201257</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:47:16</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44281.61615740741</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3961,10 +3885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:46:40</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44281.61574074074</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4032,10 +3954,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:01:46</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44281.58456018518</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4107,10 +4027,8 @@
           <t>4313956174</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:58:32</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44281.58231481481</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4174,10 +4092,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:12:50</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44281.5505787037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4249,10 +4165,8 @@
           <t>4318126624</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-26 13:04:15</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44281.54461805556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4324,10 +4238,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:58:19</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44281.54049768519</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4399,10 +4311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:06:53</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44281.50478009259</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4474,10 +4384,8 @@
           <t>4317481502</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:44:30</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44281.44756944444</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4545,10 +4453,8 @@
           <t>4317416691</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:43:34</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44281.44692129629</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4616,10 +4522,8 @@
           <t>4315363408</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:15:54</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44281.42770833334</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4683,10 +4587,8 @@
           <t>4317481502</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:12:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44281.42501157407</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4750,10 +4652,8 @@
           <t>4317416691</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-26 09:47:12</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44281.40777777778</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4825,10 +4725,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-26 09:17:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44281.38734953704</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4900,10 +4798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-26 08:57:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44281.37332175926</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4979,10 +4875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-26 07:41:36</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44281.32055555555</v>
       </c>
       <c r="I62" t="n">
         <v>5</v>
@@ -5046,10 +4940,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-26 06:55:03</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44281.28822916667</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5125,10 +5017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-26 06:52:23</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44281.28637731481</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5204,10 +5094,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-26 01:09:31</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44281.04827546296</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5272,10 +5160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:45:42</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44281.03173611111</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5335,10 +5221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:16:17</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.9696412037</v>
       </c>
       <c r="I67" t="n">
         <v>25</v>
@@ -5406,10 +5290,8 @@
           <t>4316211323</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:04:53</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.96172453704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5478,10 +5360,8 @@
           <t>4316200481</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:02:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.96034722222</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5550,10 +5430,8 @@
           <t>4316154298</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:55:58</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.95553240741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5622,10 +5500,8 @@
           <t>4316130339</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:50:13</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.95153935185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5685,10 +5561,8 @@
           <t>4315973820</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:22:23</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.93221064815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5764,10 +5638,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:58:53</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.9158912037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5843,10 +5715,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:56:27</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.91420138889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5922,10 +5792,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:46:12</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.90708333333</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6001,10 +5869,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:44:06</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.905625</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6085,10 +5951,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:39:26</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.90238425926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6164,10 +6028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:21:44</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.89009259259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6235,10 +6097,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:21:20</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.88981481481</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6314,10 +6174,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:15:01</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.88542824074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6393,10 +6251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:10:18</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.88215277778</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6468,10 +6324,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:07:49</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.88042824074</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6547,10 +6401,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:07:09</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.87996527777</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6626,10 +6478,8 @@
           <t>4314201257</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:02:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.87665509259</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -6705,10 +6555,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:59:01</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.87431712963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6784,10 +6632,8 @@
           <t>4315469535</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:40:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.86122685186</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6855,10 +6701,8 @@
           <t>4315457109</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:37:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.85958333333</v>
       </c>
       <c r="I87" t="n">
         <v>23</v>
@@ -6926,10 +6770,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:35:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.85769675926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7005,10 +6847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:17:26</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.84543981482</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7072,10 +6912,8 @@
           <t>4315363408</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:16:43</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.84494212963</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7139,10 +6977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:08:29</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.83922453703</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7218,10 +7054,8 @@
           <t>4315221320</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:47:04</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.82435185185</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7294,10 +7128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:40:58</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.82011574074</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7374,10 +7206,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:35:42</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.81645833333</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7453,10 +7283,8 @@
           <t>4315126349</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:26:53</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.81033564815</v>
       </c>
       <c r="I95" t="n">
         <v>8</v>
@@ -7524,10 +7352,8 @@
           <t>4315112129</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:24:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.80835648148</v>
       </c>
       <c r="I96" t="n">
         <v>4</v>
@@ -7591,10 +7417,8 @@
           <t>4315074241</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:16:14</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.80293981481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7670,10 +7494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:42:21</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.77940972222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7737,10 +7559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:41:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.77905092593</v>
       </c>
       <c r="I99" t="n">
         <v>10</v>
@@ -7809,10 +7629,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:30:30</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.77118055556</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7884,10 +7702,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:22:50</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.76585648148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7963,10 +7779,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:20:32</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.76425925926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8038,10 +7852,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:19:27</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.76350694444</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8117,10 +7929,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:17:28</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.76212962963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8196,10 +8006,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:59:32</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.74967592592</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8272,10 +8080,8 @@
           <t>4314167510</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:54:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.74633101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8351,10 +8157,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:53:56</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.74578703703</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8430,10 +8234,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:51:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.74439814815</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8505,10 +8307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:49:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.74255787037</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8584,10 +8384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:36:26</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.73363425926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8663,10 +8461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:23:18</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.72451388889</v>
       </c>
       <c r="I111" t="n">
         <v>10</v>
@@ -8730,10 +8526,8 @@
           <t>4314533356</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:15:30</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.71909722222</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
@@ -8805,10 +8599,8 @@
           <t>4314531387</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:13:55</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.71799768518</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8872,10 +8664,8 @@
           <t>4314520846</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:09:45</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.71510416667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8947,10 +8737,8 @@
           <t>4314508577</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:07:58</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.71386574074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9022,10 +8810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:53:32</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.70384259259</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -9093,10 +8879,8 @@
           <t>4314448810</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:51:42</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.70256944445</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9164,10 +8948,8 @@
           <t>4314408183</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:39:12</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.69388888889</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9239,10 +9021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:30:43</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.68799768519</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9310,10 +9090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:29:40</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.68726851852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9381,10 +9159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:18:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.67917824074</v>
       </c>
       <c r="I121" t="n">
         <v>150</v>
@@ -9454,10 +9230,8 @@
           <t>4314303749</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:08:10</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.67233796296</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9533,10 +9307,8 @@
           <t>4314289373</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:04:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.66951388889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9604,10 +9376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:03:27</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.6690625</v>
       </c>
       <c r="I124" t="n">
         <v>6</v>
@@ -9677,10 +9447,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:56:32</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.66425925926</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9748,10 +9516,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:51:45</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.6609375</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9819,10 +9585,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:35:44</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.64981481482</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9894,10 +9658,8 @@
           <t>4314201257</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:34:19</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.64883101852</v>
       </c>
       <c r="I128" t="n">
         <v>6</v>
@@ -9966,10 +9728,8 @@
           <t>4314190238</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:29:27</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.64545138889</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -10045,10 +9805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:27:33</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.64413194444</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10124,10 +9882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:26:53</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.64366898148</v>
       </c>
       <c r="I131" t="n">
         <v>310</v>
@@ -10203,10 +9959,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:26:00</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.64305555556</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10266,10 +10020,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:24:19</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.64188657407</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10329,10 +10081,8 @@
           <t>4314167510</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:22:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.64092592592</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10392,10 +10142,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:22:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.64028935185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10471,10 +10219,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:18:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.63793981481</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10551,10 +10297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:16:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.63674768519</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10623,10 +10367,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:13:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.63428240741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10698,10 +10440,8 @@
           <t>4314131151</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:09:54</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.631875</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10777,10 +10517,8 @@
           <t>4314124668</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:09:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.63159722222</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10856,10 +10594,8 @@
           <t>4313435229</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:07:02</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.62988425926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10923,10 +10659,8 @@
           <t>4313794837</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:06:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.62945601852</v>
       </c>
       <c r="I142" t="n">
         <v>4</v>
@@ -10994,10 +10728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:58:59</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.62429398148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11069,10 +10801,8 @@
           <t>4314089272</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:57:25</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.62320601852</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11144,10 +10874,8 @@
           <t>4313956174</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:40:22</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.61136574074</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11219,10 +10947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:32:56</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.6062037037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11294,10 +11020,8 @@
           <t>4314017410</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:30:05</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.60422453703</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11361,10 +11085,8 @@
           <t>4314013125</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:29:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.60373842593</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11440,10 +11162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:27:27</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.60239583333</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11503,10 +11223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:25:47</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.60123842592</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11582,10 +11300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:24:15</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.60017361111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11649,10 +11365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:24:11</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.60012731481</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11728,10 +11442,8 @@
           <t>4313956174</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:08:19</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.5891087963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11807,10 +11519,8 @@
           <t>4313955024</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:07:11</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.58832175926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11878,10 +11588,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:00:19</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.58355324074</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11953,10 +11661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:59:26</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.58293981481</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12024,10 +11730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:58:10</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.58206018519</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12099,10 +11803,8 @@
           <t>4313925268</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:57:30</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.58159722222</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12174,10 +11876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:55:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.58053240741</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12245,10 +11945,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:52:26</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.5780787037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12312,10 +12010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:41:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.57020833333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12391,10 +12087,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:35:46</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.56650462963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12462,10 +12156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:28:32</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.56148148148</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12533,10 +12225,8 @@
           <t>4313808219</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.56019675926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12600,10 +12290,8 @@
           <t>4313814767</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:13</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.55987268518</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -12679,10 +12367,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.55918981481</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12756,10 +12442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:05</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.55908564815</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12823,10 +12507,8 @@
           <t>4313808219</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:24:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44280.55842592593</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12898,10 +12580,8 @@
           <t>4313602152</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:22:47</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44280.55748842593</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12973,10 +12653,8 @@
           <t>4313794837</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:21:23</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44280.5565162037</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -13048,10 +12726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:20:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44280.55572916667</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13119,10 +12795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:16:11</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44280.55290509259</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13190,10 +12864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:54</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44280.54923611111</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13257,10 +12929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:23</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44280.54818287037</v>
       </c>
       <c r="I174" t="n">
         <v>4</v>
@@ -13336,10 +13006,8 @@
           <t>4313744991</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44280.54774305555</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13403,10 +13071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:40</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44280.54699074074</v>
       </c>
       <c r="I176" t="n">
         <v>94</v>
@@ -13482,10 +13148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:07</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44280.5466087963</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13561,10 +13225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:52</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44280.54643518518</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13645,10 +13307,8 @@
           <t>4313739827</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:38</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44280.54627314815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13720,10 +13380,8 @@
           <t>4313543628</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:02:59</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44280.54373842593</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13799,10 +13457,8 @@
           <t>4313709145</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:59:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44280.54109953704</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13874,10 +13530,8 @@
           <t>4313695663</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44280.53844907408</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13945,10 +13599,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:21</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44280.5384375</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14008,10 +13660,8 @@
           <t>4313688838</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:20</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44280.53842592592</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14087,10 +13737,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44280.53835648148</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14158,10 +13806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:54:05</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44280.53755787037</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14238,10 +13884,8 @@
           <t>4313691360</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44280.53733796296</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14313,10 +13957,8 @@
           <t>4313686404</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:43</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44280.53730324074</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14392,10 +14034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:52</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44280.53671296296</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14463,10 +14103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:01</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44280.53612268518</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14534,10 +14172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:28</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44280.53574074074</v>
       </c>
       <c r="I191" t="n">
         <v>7</v>
@@ -14613,10 +14249,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44280.535625</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14689,10 +14323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:45</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44280.53454861111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14764,10 +14396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:36</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44280.53444444444</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14835,10 +14465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44280.534375</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14906,10 +14534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:48:12</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44280.53347222223</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14985,10 +14611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:46:22</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44280.53219907408</v>
       </c>
       <c r="I197" t="n">
         <v>81</v>
@@ -15056,10 +14680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:35</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44280.53165509259</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15131,10 +14753,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:58</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44280.53122685185</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15202,10 +14822,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44280.53122685185</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15277,10 +14895,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:35</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44280.53096064815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15340,10 +14956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:43:41</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44280.53033564815</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15411,10 +15025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:43:36</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44280.53027777778</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15478,10 +15090,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:43:12</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44280.53</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15557,10 +15167,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:42:14</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44280.52932870371</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15628,10 +15236,8 @@
           <t>4313543628</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:48</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44280.52902777777</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15707,10 +15313,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:44</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44280.52898148148</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15770,10 +15374,8 @@
           <t>4313621791</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:39:54</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44280.52770833333</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15845,10 +15447,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:39:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44280.52732638889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15916,10 +15516,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:38:33</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44280.52677083333</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15987,10 +15585,8 @@
           <t>4313615121</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:46</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44280.52553240741</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16058,10 +15654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:42</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44280.52548611111</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16125,10 +15719,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:35</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44280.52540509259</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16200,10 +15792,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44280.52528935186</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16279,10 +15869,8 @@
           <t>4313602839</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:17</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44280.52450231482</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16350,10 +15938,8 @@
           <t>4313602152</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:34:51</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44280.52420138889</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16421,10 +16007,8 @@
           <t>4313593023</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:34:18</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44280.52381944445</v>
       </c>
       <c r="I217" t="n">
         <v>7</v>
@@ -16496,10 +16080,8 @@
           <t>4313584049</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44280.52269675926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16567,10 +16149,8 @@
           <t>4313580000</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:23</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44280.52248842592</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16630,10 +16210,8 @@
           <t>4313582453</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:39</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44280.52197916667</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16697,10 +16275,8 @@
           <t>4313586858</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:27</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44280.52184027778</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16768,10 +16344,8 @@
           <t>4313578158</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:13</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44280.52167824074</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16839,10 +16413,8 @@
           <t>4313534408</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:11</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44280.52165509259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16918,10 +16490,8 @@
           <t>4313585929</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:52</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44280.52143518518</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16989,10 +16559,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:52</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44280.52143518518</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17052,10 +16620,8 @@
           <t>4313543628</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:04</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44280.52087962963</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17131,10 +16697,8 @@
           <t>4313564554</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:28:55</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44280.52008101852</v>
       </c>
       <c r="I227" t="n">
         <v>11</v>
@@ -17202,10 +16766,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:28:13</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44280.5195949074</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17265,10 +16827,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:36</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44280.51916666667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17336,10 +16896,8 @@
           <t>4313566173</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:28</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44280.51907407407</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17407,10 +16965,8 @@
           <t>4313565092</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:45</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44280.51857638889</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17478,10 +17034,8 @@
           <t>4313561052</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44280.51851851852</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17557,10 +17111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:19</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44280.51827546296</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17628,10 +17180,8 @@
           <t>4313554289</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:14</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44280.51821759259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17703,10 +17253,8 @@
           <t>4313549524</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:42</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44280.51784722223</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17774,10 +17322,8 @@
           <t>4313557548</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:32</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44280.51773148148</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17849,10 +17395,8 @@
           <t>4313543628</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:56</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44280.51592592592</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17916,10 +17460,8 @@
           <t>4313534408</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:20</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44280.51550925926</v>
       </c>
       <c r="I238" t="n">
         <v>6</v>
@@ -17995,10 +17537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:14</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44280.51335648148</v>
       </c>
       <c r="I239" t="n">
         <v>149</v>
@@ -18070,10 +17610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:49</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44280.51306712963</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18141,10 +17679,8 @@
           <t>4313526710</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44280.51278935185</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18212,10 +17748,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:04</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44280.5125462963</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18291,10 +17825,8 @@
           <t>4313517016</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:36</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44280.51222222222</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18366,10 +17898,8 @@
           <t>4313516493</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:17</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44280.51200231481</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18445,10 +17975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:10</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44280.5119212963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18520,10 +18048,8 @@
           <t>4313516117</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:02</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44280.5118287037</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18599,10 +18125,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:34</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44280.51150462963</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18666,10 +18190,8 @@
           <t>4313513897</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44280.5114699074</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18745,10 +18267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:15:25</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44280.51070601852</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18824,10 +18344,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:15:09</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44280.51052083333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18895,10 +18413,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:14:33</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44280.51010416666</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18974,10 +18490,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:13:03</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44280.5090625</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -19053,10 +18567,8 @@
           <t>4313498418</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:55</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44280.50896990741</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19128,10 +18640,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:00</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44280.50833333333</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19207,10 +18717,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:27</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44280.50795138889</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19286,10 +18794,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44280.50792824074</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19365,10 +18871,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:20</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44280.50787037037</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19436,10 +18940,8 @@
           <t>4313491106</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:34</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44280.50733796296</v>
       </c>
       <c r="I258" t="n">
         <v>9</v>
@@ -19507,10 +19009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:39</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44280.50670138889</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19574,10 +19074,8 @@
           <t>4313474951</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:29</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44280.50658564815</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19645,10 +19143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44280.50653935185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19712,10 +19208,8 @@
           <t>4313482934</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:09</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44280.50635416667</v>
       </c>
       <c r="I262" t="n">
         <v>6</v>
@@ -19788,10 +19282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:47</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44280.50609953704</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19863,10 +19355,8 @@
           <t>4313482336</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:44</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44280.50606481481</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19934,10 +19424,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:23</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44280.50582175926</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -20013,10 +19501,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:07</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44280.50563657407</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20092,10 +19578,8 @@
           <t>4313472190</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:36</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44280.50527777777</v>
       </c>
       <c r="I267" t="n">
         <v>6</v>
@@ -20159,10 +19643,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:29</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44280.50519675926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20238,10 +19720,8 @@
           <t>4313471856</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:20</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44280.50509259259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20309,10 +19789,8 @@
           <t>4313471804</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:19</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44280.50508101852</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20380,10 +19858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:13</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44280.50501157407</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20460,10 +19936,8 @@
           <t>4313471398</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:02</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44280.50488425926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20527,10 +20001,8 @@
           <t>4313475903</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:50</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44280.50474537037</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20602,10 +20074,8 @@
           <t>4313469110</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:25</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44280.50445601852</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20681,10 +20151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:24</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44280.50444444444</v>
       </c>
       <c r="I275" t="n">
         <v>24</v>
@@ -20744,10 +20212,8 @@
           <t>4313464915</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:07</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44280.50424768519</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20823,10 +20289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:06</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44280.50423611111</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20890,10 +20354,8 @@
           <t>4313464029</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:27</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44280.50378472222</v>
       </c>
       <c r="I278" t="n">
         <v>10</v>
@@ -20965,10 +20427,8 @@
           <t>4313450966</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44280.50364583333</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21040,10 +20500,8 @@
           <t>4313463598</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:08</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44280.50356481481</v>
       </c>
       <c r="I280" t="n">
         <v>8</v>
@@ -21115,10 +20573,8 @@
           <t>4313442260</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44280.50322916666</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21186,10 +20642,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:34</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44280.5031712963</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21265,10 +20719,8 @@
           <t>4313443032</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44280.50315972222</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21340,10 +20792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:23</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44280.50304398148</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21415,10 +20865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:21</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44280.50302083333</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21486,10 +20934,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:15</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44280.50295138889</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21565,10 +21011,8 @@
           <t>4313465965</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:07</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44280.5028587963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21640,10 +21084,8 @@
           <t>4313465973</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:07</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44280.5028587963</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21719,10 +21161,8 @@
           <t>4313457236</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:00</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44280.50277777778</v>
       </c>
       <c r="I289" t="n">
         <v>11</v>
@@ -21799,10 +21239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:54</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44280.50270833333</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21878,10 +21316,8 @@
           <t>4313457079</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:54</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44280.50270833333</v>
       </c>
       <c r="I291" t="n">
         <v>10</v>
@@ -21957,10 +21393,8 @@
           <t>4313445962</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:51</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44280.50267361111</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22032,10 +21466,8 @@
           <t>4313465537</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:50</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44280.50266203703</v>
       </c>
       <c r="I293" t="n">
         <v>35</v>
@@ -22111,10 +21543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:46</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44280.50261574074</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22178,10 +21608,8 @@
           <t>4313436165</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:39</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44280.50253472223</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22253,10 +21681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:31</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44280.50244212963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22332,10 +21758,8 @@
           <t>4313461316</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:29</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44280.50241898148</v>
       </c>
       <c r="I297" t="n">
         <v>7</v>
@@ -22411,10 +21835,8 @@
           <t>4313427552</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:05</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44280.5021412037</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22478,10 +21900,8 @@
           <t>4313460362</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:48</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44280.50194444445</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22557,10 +21977,8 @@
           <t>4313460078</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:36</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44280.50180555556</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22628,10 +22046,8 @@
           <t>4313449982</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:29</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44280.50172453704</v>
       </c>
       <c r="I301" t="n">
         <v>27</v>
@@ -22699,10 +22115,8 @@
           <t>4313444823</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:25</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44280.50167824074</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22762,10 +22176,8 @@
           <t>4313453242</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:15</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44280.5015625</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22846,10 +22258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:11</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44280.5015162037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22914,10 +22324,8 @@
           <t>4313427552</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:10</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44280.50150462963</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22993,10 +22401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:06</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44280.50145833333</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23073,10 +22479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:58</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44280.50136574074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23140,10 +22544,8 @@
           <t>4313431228</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:35</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44280.50109953704</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23215,10 +22617,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:26</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44280.50099537037</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23282,10 +22682,8 @@
           <t>4313443032</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:15</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44280.50086805555</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23361,10 +22759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:59</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44280.50068287037</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23428,10 +22824,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:56</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44280.50064814815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23499,10 +22893,8 @@
           <t>4313450966</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44280.50055555555</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23574,10 +22966,8 @@
           <t>4313442260</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:45</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44280.50052083333</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23642,10 +23032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:32</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44280.50037037037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23717,10 +23105,8 @@
           <t>4313450186</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:16</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44280.50018518518</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23796,10 +23182,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:11</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44280.50012731482</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23867,10 +23251,8 @@
           <t>4313446302</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:01</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44280.50001157408</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23942,10 +23324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:57</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44280.49996527778</v>
       </c>
       <c r="I319" t="n">
         <v>29</v>
@@ -24021,10 +23401,8 @@
           <t>4313445962</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:46</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44280.49983796296</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24088,10 +23466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:38</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44280.49974537037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24155,10 +23531,8 @@
           <t>4313436165</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:27</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44280.49961805555</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24230,10 +23604,8 @@
           <t>4313436165</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:18</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44280.49951388889</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24297,10 +23669,8 @@
           <t>4313438863</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:16</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44280.49949074074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24376,10 +23746,8 @@
           <t>4313438685</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:08</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44280.49939814815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24443,10 +23811,8 @@
           <t>4313445057</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:06</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44280.499375</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24514,10 +23880,8 @@
           <t>4313433555</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:59</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44280.49929398148</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24582,10 +23946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:57</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44280.49927083333</v>
       </c>
       <c r="I328" t="n">
         <v>25</v>
@@ -24657,10 +24019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44280.49925925926</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24728,10 +24088,8 @@
           <t>4313434783</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:53</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44280.49922453704</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24807,10 +24165,8 @@
           <t>4313437581</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44280.4987962963</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24874,10 +24230,8 @@
           <t>4313433834</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:10</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44280.49872685185</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24937,10 +24291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:59</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44280.49859953704</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25008,10 +24360,8 @@
           <t>4313433555</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:57</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44280.49857638889</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25083,10 +24433,8 @@
           <t>4313433513</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:55</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44280.49855324074</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25154,10 +24502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:45</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44280.4984375</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25230,10 +24576,8 @@
           <t>4313435229</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:39</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44280.49836805555</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25301,10 +24645,8 @@
           <t>4313433072</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:32</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44280.49828703704</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25368,10 +24710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:31</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44280.49827546296</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25439,10 +24779,8 @@
           <t>4313436632</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:31</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44280.49827546296</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25506,10 +24844,8 @@
           <t>4313428058</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:27</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44280.49822916667</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25581,10 +24917,8 @@
           <t>4313432799</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:19</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44280.49813657408</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25656,10 +24990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:16</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44280.49810185185</v>
       </c>
       <c r="I343" t="n">
         <v>60</v>
@@ -25723,10 +25055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:13</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44280.49806712963</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25790,10 +25120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44280.49804398148</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25869,10 +25197,8 @@
           <t>4313436165</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:09</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44280.49802083334</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25944,10 +25270,8 @@
           <t>4313427552</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44280.49795138889</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -26023,10 +25347,8 @@
           <t>4313432361</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:59</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44280.49790509259</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26094,10 +25416,8 @@
           <t>4313425197</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:57</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44280.49788194444</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -26169,10 +25489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44280.49771990741</v>
       </c>
       <c r="I350" t="n">
         <v>720</v>
@@ -26248,10 +25566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:28</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44280.4975462963</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26319,10 +25635,8 @@
           <t>4313435229</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:26</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44280.49752314815</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26386,10 +25700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:24</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44280.4975</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26461,10 +25773,8 @@
           <t>4313426622</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:21</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44280.49746527777</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26540,10 +25850,8 @@
           <t>4313431533</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:20</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44280.49745370371</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26619,10 +25927,8 @@
           <t>4313431380</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:13</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44280.49737268518</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26698,10 +26004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:11</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44280.49734953704</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26779,10 +26083,8 @@
           <t>4313424781</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:05</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44280.49728009259</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26858,10 +26160,8 @@
           <t>4313431228</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:05</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44280.49728009259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26940,10 +26240,8 @@
           <t>4313426107</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:56</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44280.49717592593</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -27015,10 +26313,8 @@
           <t>4313426098</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:55</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44280.49716435185</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27082,10 +26378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:43</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44280.49702546297</v>
       </c>
       <c r="I362" t="n">
         <v>19</v>
@@ -27161,10 +26455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:40</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44280.49699074074</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27236,10 +26528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:36</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44280.49694444444</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27315,10 +26605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:35</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44280.49693287037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27382,10 +26670,8 @@
           <t>4313430425</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:29</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44280.49686342593</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27457,10 +26743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:27</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44280.49684027778</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27528,10 +26812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:15</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44280.49670138889</v>
       </c>
       <c r="I368" t="n">
         <v>12</v>
@@ -27599,10 +26881,8 @@
           <t>4313425197</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:14</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44280.49668981481</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27670,10 +26950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:12</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44280.49666666667</v>
       </c>
       <c r="I370" t="n">
         <v>6</v>
@@ -27749,10 +27027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:11</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44280.49665509259</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27824,10 +27100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:02</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44280.49655092593</v>
       </c>
       <c r="I372" t="n">
         <v>8</v>
@@ -27903,10 +27177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:50</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44280.49641203704</v>
       </c>
       <c r="I373" t="n">
         <v>7</v>
@@ -27982,10 +27254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:45</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44280.49635416667</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -28053,10 +27323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:25</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44280.49612268519</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28132,10 +27400,8 @@
           <t>4313414071</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:24</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44280.49611111111</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28203,10 +27469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:17</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44280.4960300926</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28274,10 +27538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:08</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44280.49592592593</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28345,10 +27607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:08</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44280.49592592593</v>
       </c>
       <c r="I379" t="n">
         <v>27</v>
@@ -28416,10 +27676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:57</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44280.49579861111</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -28487,10 +27745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:52</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44280.49574074074</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28554,10 +27810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:51</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44280.49572916667</v>
       </c>
       <c r="I382" t="n">
         <v>31</v>
@@ -28625,10 +27879,8 @@
           <t>4313421841</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:47</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44280.49568287037</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28704,10 +27956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44280.49564814815</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28783,10 +28033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:43</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44280.49563657407</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28862,10 +28110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:38</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44280.4955787037</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28925,10 +28171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:37</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44280.49556712963</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28992,10 +28236,8 @@
           <t>4313417942</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:25</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44280.49542824074</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -29063,10 +28305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:23</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44280.4954050926</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29143,10 +28383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:22</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44280.49539351852</v>
       </c>
       <c r="I390" t="n">
         <v>336</v>
@@ -29214,10 +28452,8 @@
           <t>4313412749</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:19</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44280.4953587963</v>
       </c>
       <c r="I391" t="n">
         <v>6</v>
@@ -29294,10 +28530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:09</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44280.49524305556</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29361,10 +28595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:01</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44280.49515046296</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29432,10 +28664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:57</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44280.49510416666</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29511,10 +28741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:56</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44280.4950925926</v>
       </c>
       <c r="I395" t="n">
         <v>36</v>
@@ -29586,10 +28814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:54</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44280.49506944444</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29661,10 +28887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:51</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44280.49503472223</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29740,10 +28964,8 @@
           <t>4313417169</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:47</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44280.49498842593</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29807,10 +29029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:39</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44280.49489583333</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29886,10 +29106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:38</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44280.49488425926</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29962,10 +29180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:38</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44280.49488425926</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -30037,10 +29253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:38</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44280.49488425926</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30108,10 +29322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:34</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44280.49483796296</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -30183,10 +29395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:30</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44280.49479166666</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30262,10 +29472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:28</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44280.49476851852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30337,10 +29545,8 @@
           <t>4313420179</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:26</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44280.49474537037</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30404,10 +29610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:24</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44280.49472222223</v>
       </c>
       <c r="I407" t="n">
         <v>56</v>
@@ -30471,10 +29675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:24</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44280.49472222223</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30534,10 +29736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:21</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44280.4946875</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30615,10 +29815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:20</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44280.49467592593</v>
       </c>
       <c r="I410" t="n">
         <v>549</v>
@@ -30694,10 +29892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:20</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44280.49467592593</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30765,10 +29961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:17</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44280.4946412037</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30844,10 +30038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:13</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44280.49459490741</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30923,10 +30115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:09</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44280.49454861111</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -31002,10 +30192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:05</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44280.49450231482</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31077,10 +30265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:58</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44280.49442129629</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31152,10 +30338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:56</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44280.49439814815</v>
       </c>
       <c r="I417" t="n">
         <v>610</v>
@@ -31231,10 +30415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:48</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44280.49430555556</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31310,10 +30492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:46</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44280.49428240741</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31381,10 +30561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:43</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44280.49424768519</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31448,10 +30626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:39</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44280.49420138889</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31519,10 +30695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:38</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44280.49418981482</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31586,10 +30760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:38</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44280.49418981482</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31661,10 +30833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:36</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44280.49416666666</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31728,10 +30898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:35</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44280.49415509259</v>
       </c>
       <c r="I425" t="n">
         <v>5</v>
@@ -31799,10 +30967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:35</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44280.49415509259</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31866,10 +31032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:34</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44280.49414351852</v>
       </c>
       <c r="I427" t="n">
         <v>7</v>
@@ -31938,10 +31102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:33</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44280.49413194445</v>
       </c>
       <c r="I428" t="n">
         <v>5</v>
@@ -32013,10 +31175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:32</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44280.49412037037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32076,10 +31236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:30</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44280.49409722222</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32155,10 +31313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:25</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44280.49403935186</v>
       </c>
       <c r="I431" t="n">
         <v>30</v>
@@ -32226,10 +31382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:16</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44280.49393518519</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32293,10 +31447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:13</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44280.49390046296</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32368,10 +31520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:57</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44280.49371527778</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32443,10 +31593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:55</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44280.49369212963</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32510,10 +31658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:53</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44280.49366898148</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
